--- a/PatternPrograms.xlsx
+++ b/PatternPrograms.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7695B3E3-7DB8-4177-AED8-64B164CBED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8369A42F-D48D-416A-80A2-002159AFBE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6F33D858-FDF9-43A6-AF06-937AFD7684D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6F33D858-FDF9-43A6-AF06-937AFD7684D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
     <sheet name="Type2" sheetId="2" r:id="rId2"/>
     <sheet name="TYpe3" sheetId="3" r:id="rId3"/>
+    <sheet name="TYpe4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="91">
   <si>
     <t>*</t>
   </si>
@@ -209,6 +212,108 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>New value at Row Level &amp; Col Level</t>
+  </si>
+  <si>
+    <t>Value is getting chnaged at Col level bt row starts with same chr/num</t>
+  </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
+    <t>Space (how many times need to print the spaces)</t>
+  </si>
+  <si>
+    <t>row---&gt; 1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st--&gt; 1- </t>
+  </si>
+  <si>
+    <t>st--&gt; 1- i</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>n-row</t>
+  </si>
+  <si>
+    <t>sp--&gt; 1- (n-row)</t>
+  </si>
+  <si>
+    <t>Stars (times to print)</t>
+  </si>
+  <si>
+    <t>n=3</t>
+  </si>
+  <si>
+    <t>2*1-1</t>
+  </si>
+  <si>
+    <t>2*2-1</t>
+  </si>
+  <si>
+    <t>2*3-1</t>
+  </si>
+  <si>
+    <t>num=0</t>
+  </si>
+  <si>
+    <t>0+1</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>2+3</t>
+  </si>
+  <si>
+    <t>(2*row)-1</t>
+  </si>
+  <si>
+    <t>(row-1)+row</t>
   </si>
 </sst>
 </file>
@@ -253,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +386,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,16 +579,10 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -498,6 +609,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA3D2DD-7765-4592-AC7A-350C31E05D0B}">
-  <dimension ref="B3:J32"/>
+  <dimension ref="B3:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,6 +1782,102 @@
         <v>10</v>
       </c>
       <c r="G32" s="10"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9">
+        <v>5</v>
+      </c>
+      <c r="E41" s="9">
+        <v>6</v>
+      </c>
+      <c r="F41" s="9">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="9">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9">
+        <v>6</v>
+      </c>
+      <c r="E42" s="9">
+        <v>7</v>
+      </c>
+      <c r="F42" s="9">
+        <v>8</v>
+      </c>
+      <c r="G42" s="9">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D53FCA8-1394-4CDE-ADFB-C71F59AEA788}">
-  <dimension ref="A2:O59"/>
+  <dimension ref="A2:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,16 +1906,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -1787,7 +2016,6 @@
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="22"/>
       <c r="I6" s="14">
         <v>2</v>
       </c>
@@ -1823,8 +2051,6 @@
       <c r="E7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
       <c r="I7" s="14">
         <v>3</v>
       </c>
@@ -1857,9 +2083,6 @@
       <c r="D8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
       <c r="I8" s="14">
         <v>4</v>
       </c>
@@ -1889,10 +2112,6 @@
       <c r="C9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
       <c r="I9" s="14">
         <v>5</v>
       </c>
@@ -1916,10 +2135,10 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2078,7 +2297,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="22" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="15" t="s">
@@ -2395,17 +2614,17 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2424,10 +2643,10 @@
       <c r="G43" s="11">
         <v>5</v>
       </c>
-      <c r="H43" s="30"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="11">
         <v>1</v>
       </c>
@@ -2446,10 +2665,10 @@
       <c r="G44" s="13">
         <v>1</v>
       </c>
-      <c r="H44" s="30"/>
+      <c r="H44" s="28"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="11">
         <v>2</v>
       </c>
@@ -2466,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="14"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="11">
         <v>3</v>
       </c>
@@ -2484,10 +2703,10 @@
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="30"/>
+      <c r="H46" s="28"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="11">
         <v>4</v>
       </c>
@@ -2500,10 +2719,10 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="30"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="11">
         <v>5</v>
       </c>
@@ -2514,50 +2733,26 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="30"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="30"/>
+      <c r="A49" s="27"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="30"/>
+      <c r="A50" s="27"/>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="30"/>
+      <c r="A51" s="27"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="30"/>
+      <c r="A52" s="27"/>
+      <c r="H52" s="28"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="16" t="s">
         <v>1</v>
       </c>
@@ -2576,10 +2771,10 @@
       <c r="G53" s="11">
         <v>5</v>
       </c>
-      <c r="H53" s="30"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="11">
         <v>1</v>
       </c>
@@ -2598,10 +2793,10 @@
       <c r="G54" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="30"/>
+      <c r="H54" s="28"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="11">
         <v>2</v>
       </c>
@@ -2618,10 +2813,10 @@
         <v>53</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="30"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="11">
         <v>3</v>
       </c>
@@ -2636,10 +2831,10 @@
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="30"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="11">
         <v>4</v>
       </c>
@@ -2652,10 +2847,10 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="30"/>
+      <c r="H57" s="28"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="11">
         <v>5</v>
       </c>
@@ -2666,17 +2861,423 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="30"/>
+      <c r="H58" s="28"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1</v>
+      </c>
+      <c r="D62" s="11">
+        <v>2</v>
+      </c>
+      <c r="E62" s="11">
+        <v>3</v>
+      </c>
+      <c r="F62" s="11">
+        <v>4</v>
+      </c>
+      <c r="G62" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="11">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="11">
+        <v>2</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="11">
+        <v>3</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="11">
+        <v>4</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="11">
+        <v>5</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11">
+        <v>2</v>
+      </c>
+      <c r="E71" s="11">
+        <v>3</v>
+      </c>
+      <c r="F71" s="11">
+        <v>4</v>
+      </c>
+      <c r="G71" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="11">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="11">
+        <v>2</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="11">
+        <v>3</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="11">
+        <v>4</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="11">
+        <v>5</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11">
+        <v>2</v>
+      </c>
+      <c r="E82" s="11">
+        <v>3</v>
+      </c>
+      <c r="F82" s="11">
+        <v>4</v>
+      </c>
+      <c r="G82" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="11">
+        <v>1</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="11">
+        <v>2</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="11">
+        <v>3</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="11">
+        <v>4</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="11">
+        <v>5</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="11">
+        <v>1</v>
+      </c>
+      <c r="D92" s="11">
+        <v>2</v>
+      </c>
+      <c r="E92" s="11">
+        <v>3</v>
+      </c>
+      <c r="F92" s="11">
+        <v>4</v>
+      </c>
+      <c r="G92" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="11">
+        <v>1</v>
+      </c>
+      <c r="C93" s="13">
+        <v>2</v>
+      </c>
+      <c r="D93" s="13">
+        <v>4</v>
+      </c>
+      <c r="E93" s="13">
+        <v>6</v>
+      </c>
+      <c r="F93" s="13">
+        <v>8</v>
+      </c>
+      <c r="G93" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="11">
+        <v>2</v>
+      </c>
+      <c r="C94" s="13">
+        <v>12</v>
+      </c>
+      <c r="D94" s="13">
+        <v>14</v>
+      </c>
+      <c r="E94" s="13">
+        <v>16</v>
+      </c>
+      <c r="F94" s="13">
+        <v>18</v>
+      </c>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="11">
+        <v>3</v>
+      </c>
+      <c r="C95" s="13">
+        <v>20</v>
+      </c>
+      <c r="D95" s="13">
+        <v>22</v>
+      </c>
+      <c r="E95" s="13">
+        <v>24</v>
+      </c>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="11">
+        <v>4</v>
+      </c>
+      <c r="C96" s="13">
+        <v>26</v>
+      </c>
+      <c r="D96" s="13">
+        <v>28</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="11">
+        <v>5</v>
+      </c>
+      <c r="C97" s="13">
+        <v>30</v>
+      </c>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2686,4 +3287,1020 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C554B8-607A-4130-94D4-58535610C376}">
+  <dimension ref="B1:P49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4</v>
+      </c>
+      <c r="G18" s="13">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J22" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11">
+        <v>4</v>
+      </c>
+      <c r="G24" s="11">
+        <v>5</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J28" s="38"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>3</v>
+      </c>
+      <c r="F31" s="11">
+        <v>4</v>
+      </c>
+      <c r="G31" s="11">
+        <v>5</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>3</v>
+      </c>
+      <c r="F38" s="11">
+        <v>4</v>
+      </c>
+      <c r="G38" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11">
+        <v>3</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4</v>
+      </c>
+      <c r="G46" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
+        <v>2</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13">
+        <v>2</v>
+      </c>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
+        <v>3</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="13">
+        <v>2</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J22:M22"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D334ACC8-257D-4C9F-8700-A0C7AF08A79B}">
+  <dimension ref="B3:E8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G28" sqref="G27:G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE29222-880E-42B5-8227-55803C9192C2}">
+  <dimension ref="B4:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PatternPrograms.xlsx
+++ b/PatternPrograms.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8369A42F-D48D-416A-80A2-002159AFBE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6536E5E-752B-4DCA-AE39-6EFCB23F2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6F33D858-FDF9-43A6-AF06-937AFD7684D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6F33D858-FDF9-43A6-AF06-937AFD7684D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
     <sheet name="Type2" sheetId="2" r:id="rId2"/>
     <sheet name="TYpe3" sheetId="3" r:id="rId3"/>
     <sheet name="TYpe4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Type5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="115">
   <si>
     <t>*</t>
   </si>
@@ -314,6 +314,79 @@
   </si>
   <si>
     <t>(row-1)+row</t>
+  </si>
+  <si>
+    <t>Col (how many times loop will be executed)</t>
+  </si>
+  <si>
+    <t>col (j)&lt;=row (i</t>
+  </si>
+  <si>
+    <t>Pattern will be having odd Row nos.</t>
+  </si>
+  <si>
+    <t>Loop -3</t>
+  </si>
+  <si>
+    <t>Loop2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decr. </t>
+  </si>
+  <si>
+    <t>Total No. of rows (n) = 5
+int half= (n+1)/2 = (5+1)/2 = 3</t>
+  </si>
+  <si>
+    <t>row&lt;=half</t>
+  </si>
+  <si>
+    <t>row&gt;=half</t>
+  </si>
+  <si>
+    <t>1&lt;=3</t>
+  </si>
+  <si>
+    <t>col&lt;=row</t>
+  </si>
+  <si>
+    <t>2&lt;=3</t>
+  </si>
+  <si>
+    <t>3&lt;=3</t>
+  </si>
+  <si>
+    <t>if part cond.</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>5&lt;=3</t>
+  </si>
+  <si>
+    <t>4&lt;=3 (false)</t>
+  </si>
+  <si>
+    <t>col&lt;=</t>
+  </si>
+  <si>
+    <t>loopTime = (row no+newNo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1= 1+0 </t>
+  </si>
+  <si>
+    <t>3= 2+1</t>
+  </si>
+  <si>
+    <t>5 = 3+2</t>
+  </si>
+  <si>
+    <t>3 = 5-2</t>
+  </si>
+  <si>
+    <t>1  = 3-2</t>
   </si>
 </sst>
 </file>
@@ -358,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +474,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -516,11 +607,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,28 +752,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E03377F-C9B7-4F75-918A-87F5F06D1046}">
   <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -1411,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA3D2DD-7765-4592-AC7A-350C31E05D0B}">
   <dimension ref="B3:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,10 +2097,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I3" s="23" t="s">
@@ -3293,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C554B8-607A-4130-94D4-58535610C376}">
   <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3304,12 +3495,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J1" s="35" t="s">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
@@ -3341,16 +3535,16 @@
       <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3358,17 +3552,17 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="35" t="s">
         <v>74</v>
       </c>
       <c r="L4" s="1">
@@ -3377,15 +3571,15 @@
       <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="13" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3589,7 @@
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="35" t="s">
         <v>75</v>
       </c>
       <c r="L5" s="1">
@@ -3409,8 +3603,8 @@
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="13" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3617,7 @@
       <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="35" t="s">
         <v>77</v>
       </c>
       <c r="L6" s="1">
@@ -3437,7 +3631,7 @@
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="13" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3647,7 @@
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="35" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="1">
@@ -3485,7 +3679,7 @@
       <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="35" t="s">
         <v>76</v>
       </c>
       <c r="L8" s="1">
@@ -3496,12 +3690,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
@@ -3533,16 +3727,16 @@
       <c r="G13" s="11">
         <v>5</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="33" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3560,7 +3754,7 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="35" t="s">
         <v>74</v>
       </c>
       <c r="L14" s="1">
@@ -3569,7 +3763,7 @@
       <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="36"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
@@ -3587,7 +3781,7 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="35" t="s">
         <v>75</v>
       </c>
       <c r="L15" s="1">
@@ -3615,7 +3809,7 @@
       <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="35" t="s">
         <v>77</v>
       </c>
       <c r="L16" s="1">
@@ -3645,7 +3839,7 @@
       <c r="J17" s="1">
         <v>4</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="1">
@@ -3677,7 +3871,7 @@
       <c r="J18" s="1">
         <v>5</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="35" t="s">
         <v>76</v>
       </c>
       <c r="L18" s="1">
@@ -3688,12 +3882,12 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
@@ -3705,7 +3899,7 @@
       <c r="M23" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="37" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3728,22 +3922,22 @@
       <c r="G24" s="11">
         <v>5</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="41" t="s">
+      <c r="P24" s="38" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3761,7 +3955,7 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="35" t="s">
         <v>74</v>
       </c>
       <c r="L25" s="1">
@@ -3795,7 +3989,7 @@
       <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="37" t="s">
+      <c r="K26" s="35" t="s">
         <v>75</v>
       </c>
       <c r="L26" s="1">
@@ -3833,7 +4027,7 @@
       <c r="J27" s="1">
         <v>3</v>
       </c>
-      <c r="K27" s="37" t="s">
+      <c r="K27" s="35" t="s">
         <v>77</v>
       </c>
       <c r="L27" s="1">
@@ -3850,16 +4044,16 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
@@ -3880,16 +4074,16 @@
       <c r="G31" s="11">
         <v>5</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="33" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3907,7 +4101,7 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="35" t="s">
         <v>74</v>
       </c>
       <c r="L32" s="1">
@@ -3933,7 +4127,7 @@
       <c r="J33" s="1">
         <v>2</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="35" t="s">
         <v>75</v>
       </c>
       <c r="L33" s="1">
@@ -3961,7 +4155,7 @@
       <c r="J34" s="1">
         <v>3</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="K34" s="35" t="s">
         <v>77</v>
       </c>
       <c r="L34" s="1">
@@ -4109,15 +4303,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D334ACC8-257D-4C9F-8700-A0C7AF08A79B}">
-  <dimension ref="B3:E8"/>
+  <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G28" sqref="G27:G28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="8.88671875" style="41"/>
+    <col min="8" max="8" width="10.109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="29" style="15" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="41" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="41"/>
+    <col min="13" max="13" width="30" style="41" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="41"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H2" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4130,44 +4353,103 @@
       <c r="E3" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="43">
+        <v>1</v>
+      </c>
+      <c r="I4" s="43">
+        <v>1</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="55">
+        <v>2</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="43">
+        <v>2</v>
+      </c>
+      <c r="I5" s="43">
+        <v>2</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="L5" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="46"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="55">
+        <v>3</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="43">
+        <v>3</v>
+      </c>
+      <c r="I6" s="43">
+        <v>3</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="L6" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -4178,8 +4460,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="47"/>
+      <c r="G7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>5</v>
       </c>
@@ -4188,9 +4490,388 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="14">
+        <v>5</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="L8" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="53"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I12" s="48"/>
+      <c r="J12" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="56"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I13" s="48"/>
+      <c r="J13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="I15" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="43">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43">
+        <v>1</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="43">
+        <v>2</v>
+      </c>
+      <c r="K16" s="43">
+        <v>3</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="43">
+        <v>3</v>
+      </c>
+      <c r="K17" s="43">
+        <v>5</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="M17" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="I18" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="14">
+        <v>4</v>
+      </c>
+      <c r="K18" s="14">
+        <v>3</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="14">
+        <v>5</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="48"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I20" s="48"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11">
+        <v>4</v>
+      </c>
+      <c r="G25" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>3</v>
+      </c>
+      <c r="F28" s="13">
+        <v>4</v>
+      </c>
+      <c r="G28" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13">
+        <v>3</v>
+      </c>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4198,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE29222-880E-42B5-8227-55803C9192C2}">
   <dimension ref="B4:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PatternPrograms.xlsx
+++ b/PatternPrograms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6536E5E-752B-4DCA-AE39-6EFCB23F2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50325DF-CC4F-4A7E-971E-7A573552067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6F33D858-FDF9-43A6-AF06-937AFD7684D8}"/>
   </bookViews>
@@ -18,30 +18,19 @@
     <sheet name="TYpe3" sheetId="3" r:id="rId3"/>
     <sheet name="TYpe4" sheetId="4" r:id="rId4"/>
     <sheet name="Type5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Type6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="137">
   <si>
     <t>*</t>
   </si>
@@ -387,6 +376,75 @@
   </si>
   <si>
     <t>1  = 3-2</t>
+  </si>
+  <si>
+    <t>(2*1)-1</t>
+  </si>
+  <si>
+    <t>2*1 -1</t>
+  </si>
+  <si>
+    <t>(2*1) -1</t>
+  </si>
+  <si>
+    <t>(2*2) -1</t>
+  </si>
+  <si>
+    <t>(2*3) -1</t>
+  </si>
+  <si>
+    <t>(2*Row) -1</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>star (col)</t>
+  </si>
+  <si>
+    <t>n = 5</t>
+  </si>
+  <si>
+    <t>Upper Half</t>
+  </si>
+  <si>
+    <t>Lower half</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loops -  2
+if(upper part) 
+else (Lower part) condition
+</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>half = (n+1)/2 =3</t>
+  </si>
+  <si>
+    <t>half - row</t>
+  </si>
+  <si>
+    <t>space (half-row)</t>
+  </si>
+  <si>
+    <t>2*2 -1</t>
+  </si>
+  <si>
+    <t>2*3 -1</t>
   </si>
 </sst>
 </file>
@@ -431,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +550,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -659,11 +747,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,62 +864,92 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2079,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D53FCA8-1394-4CDE-ADFB-C71F59AEA788}">
   <dimension ref="A2:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:G97"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2097,10 +2226,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I3" s="23" t="s">
@@ -2673,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>51</v>
       </c>
@@ -3498,12 +3627,12 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
@@ -3690,12 +3819,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
@@ -3882,12 +4011,12 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
@@ -4303,44 +4432,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D334ACC8-257D-4C9F-8700-A0C7AF08A79B}">
-  <dimension ref="B1:Q30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.88671875" style="41"/>
+    <col min="1" max="7" width="8.88671875" style="39"/>
     <col min="8" max="8" width="10.109375" style="15" customWidth="1"/>
     <col min="9" max="9" width="29" style="15" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="41" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="41"/>
-    <col min="13" max="13" width="30" style="41" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="41"/>
+    <col min="10" max="10" width="18.6640625" style="39" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="39"/>
+    <col min="13" max="13" width="13.5546875" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="45" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H2" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4353,103 +4482,103 @@
       <c r="E3" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="50"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="55">
-        <v>1</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="46" t="s">
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="45">
+        <v>1</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="43">
-        <v>1</v>
-      </c>
-      <c r="I4" s="43">
-        <v>1</v>
-      </c>
-      <c r="J4" s="46" t="s">
+      <c r="H4" s="41">
+        <v>1</v>
+      </c>
+      <c r="I4" s="41">
+        <v>1</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="49" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="55">
-        <v>2</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="43">
-        <v>2</v>
-      </c>
-      <c r="I5" s="43">
-        <v>2</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="L5" s="48" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="45">
+        <v>2</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="41">
+        <v>2</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2</v>
+      </c>
+      <c r="J5" s="49"/>
+      <c r="L5" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="46"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="55">
-        <v>3</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="43">
-        <v>3</v>
-      </c>
-      <c r="I6" s="43">
-        <v>3</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="L6" s="51" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="45">
+        <v>3</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="41">
+        <v>3</v>
+      </c>
+      <c r="I6" s="41">
+        <v>3</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="L6" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M6" s="54"/>
+      <c r="N6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -4460,8 +4589,8 @@
         <v>0</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="46" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="49" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="14">
@@ -4470,18 +4599,18 @@
       <c r="I7" s="14">
         <v>2</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="52" t="s">
+      <c r="M7" s="43"/>
+      <c r="N7" s="53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>5</v>
       </c>
@@ -4490,48 +4619,50 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="14">
         <v>5</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="L8" s="48" t="s">
+      <c r="J8" s="49"/>
+      <c r="L8" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="53"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I12" s="48"/>
-      <c r="J12" s="56" t="s">
+      <c r="M8" s="43"/>
+      <c r="N8" s="54"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I12" s="43"/>
+      <c r="J12" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I13" s="48"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I13" s="43"/>
       <c r="J13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-    </row>
-    <row r="14" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+    </row>
+    <row r="14" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>1</v>
       </c>
@@ -4550,25 +4681,37 @@
       <c r="G14" s="11">
         <v>5</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="42" t="s">
+      <c r="I14" s="43"/>
+      <c r="J14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48" t="s">
+      <c r="L14" s="43"/>
+      <c r="M14" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O14" s="49"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>121</v>
+      </c>
       <c r="B15" s="11">
         <v>1</v>
       </c>
@@ -4577,33 +4720,43 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="I15" s="46" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="I15" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="43">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43">
-        <v>1</v>
-      </c>
-      <c r="L15" s="46" t="s">
+      <c r="J15" s="41">
+        <v>1</v>
+      </c>
+      <c r="K15" s="41">
+        <v>1</v>
+      </c>
+      <c r="L15" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="48" t="s">
+      <c r="M15" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="N15" s="48" t="s">
+      <c r="N15" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46" t="s">
+      <c r="O15" s="49"/>
+      <c r="P15" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="Q15" s="48"/>
-    </row>
-    <row r="16" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="41">
+        <v>1</v>
+      </c>
+      <c r="S15" s="41">
+        <v>1</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="57"/>
       <c r="B16" s="11">
         <v>2</v>
       </c>
@@ -4616,27 +4769,37 @@
       <c r="E16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="43">
-        <v>2</v>
-      </c>
-      <c r="K16" s="43">
-        <v>3</v>
-      </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="48" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="41">
+        <v>2</v>
+      </c>
+      <c r="K16" s="41">
+        <v>3</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="48" t="s">
+      <c r="N16" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="48"/>
-    </row>
-    <row r="17" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="41">
+        <v>2</v>
+      </c>
+      <c r="S16" s="41">
+        <v>3</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
       <c r="B17" s="11">
         <v>3</v>
       </c>
@@ -4655,25 +4818,37 @@
       <c r="G17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="43">
-        <v>3</v>
-      </c>
-      <c r="K17" s="43">
-        <v>5</v>
-      </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="48" t="s">
+      <c r="I17" s="49"/>
+      <c r="J17" s="41">
+        <v>3</v>
+      </c>
+      <c r="K17" s="41">
+        <v>5</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="48"/>
-    </row>
-    <row r="18" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="41">
+        <v>3</v>
+      </c>
+      <c r="S17" s="41">
+        <v>5</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>122</v>
+      </c>
       <c r="B18" s="11">
         <v>4</v>
       </c>
@@ -4686,9 +4861,9 @@
       <c r="E18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="I18" s="46" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="I18" s="49" t="s">
         <v>99</v>
       </c>
       <c r="J18" s="14">
@@ -4697,22 +4872,23 @@
       <c r="K18" s="14">
         <v>3</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="57" t="s">
+      <c r="M18" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="N18" s="48" t="s">
+      <c r="N18" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="46" t="s">
+      <c r="O18" s="43"/>
+      <c r="P18" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="Q18" s="48"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q18" s="43"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="57"/>
       <c r="B19" s="11">
         <v>5</v>
       </c>
@@ -4721,38 +4897,38 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="I19" s="46"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="14">
         <v>5</v>
       </c>
       <c r="K19" s="14">
         <v>1</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="57" t="s">
+      <c r="L19" s="49"/>
+      <c r="M19" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="48" t="s">
+      <c r="N19" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="48"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I20" s="48"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="43"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="43"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>1</v>
       </c>
@@ -4772,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>1</v>
       </c>
@@ -4781,10 +4957,10 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>2</v>
       </c>
@@ -4797,10 +4973,10 @@
       <c r="E27" s="13">
         <v>3</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>3</v>
       </c>
@@ -4820,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>4</v>
       </c>
@@ -4833,10 +5009,10 @@
       <c r="E29" s="13">
         <v>3</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>5</v>
       </c>
@@ -4845,11 +5021,23 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="J12:K12"/>
@@ -4859,16 +5047,6 @@
     <mergeCell ref="O15:O17"/>
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4877,111 +5055,753 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE29222-880E-42B5-8227-55803C9192C2}">
-  <dimension ref="B4:G9"/>
+  <dimension ref="B2:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C2" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="J2" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+    </row>
+    <row r="3" spans="2:20" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="J3" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="65">
+        <v>1</v>
+      </c>
+      <c r="K6" s="65">
+        <v>2</v>
+      </c>
+      <c r="L6" s="65">
+        <v>1</v>
+      </c>
+      <c r="N6" s="65">
+        <v>1</v>
+      </c>
+      <c r="O6" s="65">
+        <v>2</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" s="65">
+        <v>1</v>
+      </c>
+      <c r="S6" s="65">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65">
+        <v>2</v>
+      </c>
+      <c r="K7" s="65">
+        <v>1</v>
+      </c>
+      <c r="L7" s="65">
+        <v>3</v>
+      </c>
+      <c r="N7" s="65">
+        <v>2</v>
+      </c>
+      <c r="O7" s="65">
+        <v>1</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="65">
+        <v>2</v>
+      </c>
+      <c r="S7" s="65">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65">
+        <v>3</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0</v>
+      </c>
+      <c r="L8" s="65">
+        <v>5</v>
+      </c>
+      <c r="N8" s="65">
+        <v>3</v>
+      </c>
+      <c r="O8" s="65">
+        <v>0</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R8" s="65">
+        <v>3</v>
+      </c>
+      <c r="S8" s="65">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>0</v>
+      </c>
       <c r="G9" s="5"/>
+      <c r="I9" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="66">
+        <v>4</v>
+      </c>
+      <c r="K9" s="66">
+        <v>1</v>
+      </c>
+      <c r="L9" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="66">
+        <v>5</v>
+      </c>
+      <c r="K10" s="66">
+        <v>2</v>
+      </c>
+      <c r="L10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>4</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>5</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11">
+        <v>4</v>
+      </c>
+      <c r="G25" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="45">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="45">
+        <v>2</v>
+      </c>
+      <c r="E27" s="45">
+        <v>2</v>
+      </c>
+      <c r="F27" s="45">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="45">
+        <v>3</v>
+      </c>
+      <c r="D28" s="45">
+        <v>3</v>
+      </c>
+      <c r="E28" s="45">
+        <v>3</v>
+      </c>
+      <c r="F28" s="45">
+        <v>3</v>
+      </c>
+      <c r="G28" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
+        <v>4</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="45">
+        <v>4</v>
+      </c>
+      <c r="E29" s="45">
+        <v>4</v>
+      </c>
+      <c r="F29" s="45">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="45">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2</v>
+      </c>
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
+      <c r="F35" s="11">
+        <v>4</v>
+      </c>
+      <c r="G35" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="11">
+        <v>3</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
+        <v>4</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="11">
+        <v>5</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11">
+        <v>3</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4</v>
+      </c>
+      <c r="G46" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="45">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
+        <v>2</v>
+      </c>
+      <c r="C48" s="58"/>
+      <c r="D48" s="45">
+        <v>2</v>
+      </c>
+      <c r="E48" s="45">
+        <v>3</v>
+      </c>
+      <c r="F48" s="45">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
+        <v>3</v>
+      </c>
+      <c r="C49" s="45">
+        <v>5</v>
+      </c>
+      <c r="D49" s="45">
+        <v>6</v>
+      </c>
+      <c r="E49" s="45">
+        <v>7</v>
+      </c>
+      <c r="F49" s="45">
+        <v>8</v>
+      </c>
+      <c r="G49" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
+        <v>4</v>
+      </c>
+      <c r="C50" s="58"/>
+      <c r="D50" s="45">
+        <v>10</v>
+      </c>
+      <c r="E50" s="45">
+        <v>11</v>
+      </c>
+      <c r="F50" s="45">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
+        <v>5</v>
+      </c>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="45">
+        <v>13</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3</v>
+      </c>
+      <c r="F56" s="11">
+        <v>4</v>
+      </c>
+      <c r="G56" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="11">
+        <v>2</v>
+      </c>
+      <c r="C58" s="58"/>
+      <c r="D58" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="11">
+        <v>3</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="11">
+        <v>4</v>
+      </c>
+      <c r="C60" s="58"/>
+      <c r="D60" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="11">
+        <v>5</v>
+      </c>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatternPrograms.xlsx
+++ b/PatternPrograms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50325DF-CC4F-4A7E-971E-7A573552067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC98603E-439E-4ED7-9922-BEFEEF4416A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6F33D858-FDF9-43A6-AF06-937AFD7684D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{6F33D858-FDF9-43A6-AF06-937AFD7684D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="TYpe4" sheetId="4" r:id="rId4"/>
     <sheet name="Type5" sheetId="5" r:id="rId5"/>
     <sheet name="Type6" sheetId="6" r:id="rId6"/>
+    <sheet name="Exercise" sheetId="7" r:id="rId7"/>
+    <sheet name="Programs" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="144">
   <si>
     <t>*</t>
   </si>
@@ -445,13 +447,34 @@
   </si>
   <si>
     <t>2*3 -1</t>
+  </si>
+  <si>
+    <t>5432*</t>
+  </si>
+  <si>
+    <t>543*1</t>
+  </si>
+  <si>
+    <t>54*21</t>
+  </si>
+  <si>
+    <t>5*321</t>
+  </si>
+  <si>
+    <t>*4321</t>
+  </si>
+  <si>
+    <t>Find Even  &amp; odd Numbers from Naturals Numbers 1-100</t>
+  </si>
+  <si>
+    <t>Find  prime numbers from Naturals Numbers 1-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +510,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -762,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,67 +918,73 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2226,10 +2262,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I3" s="23" t="s">
@@ -3627,12 +3663,12 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
@@ -3819,12 +3855,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
@@ -4011,12 +4047,12 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
@@ -4450,19 +4486,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="56"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H2" s="15" t="s">
@@ -4488,10 +4524,10 @@
       <c r="I3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="45">
@@ -4503,7 +4539,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="56" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="41">
@@ -4512,16 +4548,16 @@
       <c r="I4" s="41">
         <v>1</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="56" t="s">
         <v>92</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="56" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4537,19 +4573,19 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="49"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="41">
         <v>2</v>
       </c>
       <c r="I5" s="41">
         <v>2</v>
       </c>
-      <c r="J5" s="49"/>
+      <c r="J5" s="56"/>
       <c r="L5" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="49"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="45">
@@ -4564,19 +4600,19 @@
       <c r="E6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="49"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="41">
         <v>3</v>
       </c>
       <c r="I6" s="41">
         <v>3</v>
       </c>
-      <c r="J6" s="49"/>
+      <c r="J6" s="56"/>
       <c r="L6" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
@@ -4590,7 +4626,7 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="56" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="14">
@@ -4599,14 +4635,14 @@
       <c r="I7" s="14">
         <v>2</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="56" t="s">
         <v>96</v>
       </c>
       <c r="L7" s="43" t="s">
         <v>107</v>
       </c>
       <c r="M7" s="43"/>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="59" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4620,26 +4656,26 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="49"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="14">
         <v>5</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="56"/>
       <c r="L8" s="43" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="43"/>
-      <c r="N8" s="54"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I12" s="43"/>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="50"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
@@ -4692,10 +4728,10 @@
       <c r="M14" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="49"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="40" t="s">
@@ -4709,7 +4745,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="54" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="11">
@@ -4722,7 +4758,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="56" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="41">
@@ -4731,7 +4767,7 @@
       <c r="K15" s="41">
         <v>1</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="56" t="s">
         <v>108</v>
       </c>
       <c r="M15" s="43" t="s">
@@ -4740,8 +4776,8 @@
       <c r="N15" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49" t="s">
+      <c r="O15" s="56"/>
+      <c r="P15" s="56" t="s">
         <v>104</v>
       </c>
       <c r="Q15" s="43"/>
@@ -4756,7 +4792,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="11">
         <v>2</v>
       </c>
@@ -4771,22 +4807,22 @@
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
-      <c r="I16" s="49"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="41">
         <v>2</v>
       </c>
       <c r="K16" s="41">
         <v>3</v>
       </c>
-      <c r="L16" s="49"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="43" t="s">
         <v>111</v>
       </c>
       <c r="N16" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="41">
         <v>2</v>
@@ -4799,7 +4835,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="11">
         <v>3</v>
       </c>
@@ -4818,22 +4854,22 @@
       <c r="G17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="41">
         <v>3</v>
       </c>
       <c r="K17" s="41">
         <v>5</v>
       </c>
-      <c r="L17" s="49"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="43" t="s">
         <v>112</v>
       </c>
       <c r="N17" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="41">
         <v>3</v>
@@ -4846,7 +4882,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="54" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="11">
@@ -4863,7 +4899,7 @@
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J18" s="14">
@@ -4872,7 +4908,7 @@
       <c r="K18" s="14">
         <v>3</v>
       </c>
-      <c r="L18" s="49" t="s">
+      <c r="L18" s="56" t="s">
         <v>96</v>
       </c>
       <c r="M18" s="46" t="s">
@@ -4882,13 +4918,13 @@
         <v>107</v>
       </c>
       <c r="O18" s="43"/>
-      <c r="P18" s="49" t="s">
+      <c r="P18" s="56" t="s">
         <v>105</v>
       </c>
       <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="11">
         <v>5</v>
       </c>
@@ -4899,14 +4935,14 @@
       <c r="E19" s="14"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="14">
         <v>5</v>
       </c>
       <c r="K19" s="14">
         <v>1</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="46" t="s">
         <v>114</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>106</v>
       </c>
       <c r="O19" s="43"/>
-      <c r="P19" s="49"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -5026,18 +5062,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="J12:K12"/>
@@ -5047,6 +5071,18 @@
     <mergeCell ref="O15:O17"/>
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5057,7 +5093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE29222-880E-42B5-8227-55803C9192C2}">
   <dimension ref="B2:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -5068,26 +5104,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="J2" s="61" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="J2" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="2:20" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="J3" s="61" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="J3" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
@@ -5108,31 +5144,31 @@
       <c r="G5" s="11">
         <v>5</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="59" t="s">
+      <c r="S5" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="67" t="s">
+      <c r="T5" s="51" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5140,38 +5176,38 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="45" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="65">
-        <v>1</v>
-      </c>
-      <c r="K6" s="65">
-        <v>2</v>
-      </c>
-      <c r="L6" s="65">
-        <v>1</v>
-      </c>
-      <c r="N6" s="65">
-        <v>1</v>
-      </c>
-      <c r="O6" s="65">
+      <c r="J6" s="49">
+        <v>1</v>
+      </c>
+      <c r="K6" s="49">
+        <v>2</v>
+      </c>
+      <c r="L6" s="49">
+        <v>1</v>
+      </c>
+      <c r="N6" s="49">
+        <v>1</v>
+      </c>
+      <c r="O6" s="49">
         <v>2</v>
       </c>
       <c r="P6" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="R6" s="65">
-        <v>1</v>
-      </c>
-      <c r="S6" s="65">
+      <c r="R6" s="49">
+        <v>1</v>
+      </c>
+      <c r="S6" s="49">
         <v>1</v>
       </c>
       <c r="T6" t="s">
@@ -5182,7 +5218,7 @@
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="45" t="s">
         <v>0</v>
       </c>
@@ -5193,29 +5229,29 @@
         <v>0</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65">
-        <v>2</v>
-      </c>
-      <c r="K7" s="65">
-        <v>1</v>
-      </c>
-      <c r="L7" s="65">
-        <v>3</v>
-      </c>
-      <c r="N7" s="65">
-        <v>2</v>
-      </c>
-      <c r="O7" s="65">
+      <c r="I7" s="66"/>
+      <c r="J7" s="49">
+        <v>2</v>
+      </c>
+      <c r="K7" s="49">
+        <v>1</v>
+      </c>
+      <c r="L7" s="49">
+        <v>3</v>
+      </c>
+      <c r="N7" s="49">
+        <v>2</v>
+      </c>
+      <c r="O7" s="49">
         <v>1</v>
       </c>
       <c r="P7" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="R7" s="65">
-        <v>2</v>
-      </c>
-      <c r="S7" s="65">
+      <c r="R7" s="49">
+        <v>2</v>
+      </c>
+      <c r="S7" s="49">
         <v>3</v>
       </c>
       <c r="T7" t="s">
@@ -5241,29 +5277,29 @@
       <c r="G8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65">
-        <v>3</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0</v>
-      </c>
-      <c r="L8" s="65">
-        <v>5</v>
-      </c>
-      <c r="N8" s="65">
-        <v>3</v>
-      </c>
-      <c r="O8" s="65">
+      <c r="I8" s="66"/>
+      <c r="J8" s="49">
+        <v>3</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0</v>
+      </c>
+      <c r="L8" s="49">
+        <v>5</v>
+      </c>
+      <c r="N8" s="49">
+        <v>3</v>
+      </c>
+      <c r="O8" s="49">
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="R8" s="65">
-        <v>3</v>
-      </c>
-      <c r="S8" s="65">
+      <c r="R8" s="49">
+        <v>3</v>
+      </c>
+      <c r="S8" s="49">
         <v>5</v>
       </c>
       <c r="T8" t="s">
@@ -5274,7 +5310,7 @@
       <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="45" t="s">
         <v>0</v>
       </c>
@@ -5285,16 +5321,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="66">
-        <v>4</v>
-      </c>
-      <c r="K9" s="66">
-        <v>1</v>
-      </c>
-      <c r="L9" s="66">
+      <c r="J9" s="50">
+        <v>4</v>
+      </c>
+      <c r="K9" s="50">
+        <v>1</v>
+      </c>
+      <c r="L9" s="50">
         <v>3</v>
       </c>
     </row>
@@ -5302,21 +5338,21 @@
       <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="45" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="66">
-        <v>5</v>
-      </c>
-      <c r="K10" s="66">
-        <v>2</v>
-      </c>
-      <c r="L10" s="66">
+      <c r="I10" s="66"/>
+      <c r="J10" s="50">
+        <v>5</v>
+      </c>
+      <c r="K10" s="50">
+        <v>2</v>
+      </c>
+      <c r="L10" s="50">
         <v>1</v>
       </c>
     </row>
@@ -5344,8 +5380,8 @@
       <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="45" t="s">
         <v>52</v>
       </c>
@@ -5356,7 +5392,7 @@
       <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="45" t="s">
         <v>53</v>
       </c>
@@ -5392,7 +5428,7 @@
       <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="45" t="s">
         <v>55</v>
       </c>
@@ -5408,8 +5444,8 @@
       <c r="B20" s="11">
         <v>5</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="45" t="s">
         <v>56</v>
       </c>
@@ -5440,8 +5476,8 @@
       <c r="B26" s="11">
         <v>1</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="45">
         <v>1</v>
       </c>
@@ -5452,7 +5488,7 @@
       <c r="B27" s="11">
         <v>2</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="45">
         <v>2</v>
       </c>
@@ -5488,7 +5524,7 @@
       <c r="B29" s="11">
         <v>4</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="45">
         <v>4</v>
       </c>
@@ -5504,8 +5540,8 @@
       <c r="B30" s="11">
         <v>5</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="45">
         <v>5</v>
       </c>
@@ -5536,8 +5572,8 @@
       <c r="B36" s="11">
         <v>1</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="45" t="s">
         <v>52</v>
       </c>
@@ -5548,7 +5584,7 @@
       <c r="B37" s="11">
         <v>2</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="45" t="s">
         <v>53</v>
       </c>
@@ -5584,7 +5620,7 @@
       <c r="B39" s="11">
         <v>4</v>
       </c>
-      <c r="C39" s="58"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="45" t="s">
         <v>61</v>
       </c>
@@ -5600,8 +5636,8 @@
       <c r="B40" s="11">
         <v>5</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="45" t="s">
         <v>64</v>
       </c>
@@ -5632,8 +5668,8 @@
       <c r="B47" s="11">
         <v>1</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="45">
         <v>1</v>
       </c>
@@ -5644,7 +5680,7 @@
       <c r="B48" s="11">
         <v>2</v>
       </c>
-      <c r="C48" s="58"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="45">
         <v>2</v>
       </c>
@@ -5680,7 +5716,7 @@
       <c r="B50" s="11">
         <v>4</v>
       </c>
-      <c r="C50" s="58"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="45">
         <v>10</v>
       </c>
@@ -5696,8 +5732,8 @@
       <c r="B51" s="11">
         <v>5</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="45">
         <v>13</v>
       </c>
@@ -5728,8 +5764,8 @@
       <c r="B57" s="11">
         <v>1</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="45" t="s">
         <v>0</v>
       </c>
@@ -5740,7 +5776,7 @@
       <c r="B58" s="11">
         <v>2</v>
       </c>
-      <c r="C58" s="58"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="45" t="s">
         <v>0</v>
       </c>
@@ -5770,7 +5806,7 @@
       <c r="B60" s="11">
         <v>4</v>
       </c>
-      <c r="C60" s="58"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="45" t="s">
         <v>0</v>
       </c>
@@ -5784,8 +5820,8 @@
       <c r="B61" s="11">
         <v>5</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="45" t="s">
         <v>0</v>
       </c>
@@ -5804,4 +5840,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C0D7B6-5DB0-47FD-A648-70A402AAEB59}">
+  <dimension ref="B4:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="69">
+        <v>55555</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="69">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="69">
+        <v>34555</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="69">
+        <v>23455</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="69">
+        <v>12345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACC15D7-3889-4440-8DB7-C2B7B4B2FAAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="97.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>